--- a/PythonWorkspace/iPythonNotebook/newdemoexcel.xlsx
+++ b/PythonWorkspace/iPythonNotebook/newdemoexcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,13 +9,13 @@
   <sheets>
     <sheet name="Data_Demo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -156,6 +161,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -190,6 +196,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +372,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>5</v>
       </c>
@@ -383,7 +392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -394,7 +403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -405,7 +414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -416,7 +425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -427,7 +436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -438,7 +447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -449,7 +458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -460,7 +469,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -471,7 +480,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -482,7 +491,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -493,7 +502,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -504,7 +513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -515,7 +524,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -526,7 +535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -537,7 +546,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -545,7 +554,7 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
